--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/weijian_tan_global_ntt/Documents/Documents/Git_repos/iis-pac-resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{63C9620B-C176-47F9-A91A-2518AD0243AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7753FB-35F8-4059-8BE8-AB406C6DBE4A}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{63C9620B-C176-47F9-A91A-2518AD0243AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221A0746-3B8D-4858-9ECA-5743BEF3DAA6}"/>
   <bookViews>
     <workbookView xWindow="5628" yWindow="0" windowWidth="17508" windowHeight="12336" xr2:uid="{02CC412B-3D30-4ED3-922A-57E4D5D3FF85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Use Case</t>
   </si>
@@ -50,24 +50,12 @@
     <t>PAC File Exists and Is Modifed</t>
   </si>
   <si>
-    <t>Modify proxy_sg.pac in the source folder.</t>
-  </si>
-  <si>
     <t>PAC File Exists but Is Not Modified</t>
   </si>
   <si>
-    <t>Ensure proxy_my.pac has not changed since its last archive.</t>
-  </si>
-  <si>
-    <t>Script skips archiving and syncing for this file.</t>
-  </si>
-  <si>
     <t>PAC File Does Not Exist</t>
   </si>
   <si>
-    <t>Remove proxy_vn.pac from the source folder.</t>
-  </si>
-  <si>
     <t>Script logs a warning and continues processing other files.</t>
   </si>
   <si>
@@ -83,40 +71,162 @@
     <t>Multiple PAC Files Changed</t>
   </si>
   <si>
-    <t>Modify proxy_sg.pac and proxy_my.pac.</t>
-  </si>
-  <si>
     <t>Both files are archived and synced to secondary servers.</t>
   </si>
   <si>
-    <t>Archive Folder Is Missing</t>
-  </si>
-  <si>
     <t>Secondary Server Is Unreachable</t>
   </si>
   <si>
-    <t>Archive Folder on Secondary Server Is Missing</t>
-  </si>
-  <si>
-    <t>Delete the archive folder before running the script.</t>
-  </si>
-  <si>
     <t>Disconnect one of the secondary servers.</t>
   </si>
   <si>
-    <t>Delete C:\PAC_Archive on one secondary server.</t>
-  </si>
-  <si>
-    <t>Script creates the folder and syncs archive files.</t>
-  </si>
-  <si>
     <t>Script logs an error for that server but continues with others.</t>
   </si>
   <si>
-    <t>Script recreates the folder and proceeds</t>
-  </si>
-  <si>
     <t>Script archives only the proxy_sg.pac file and copy only the new archieve pac fil to all secondary servers.</t>
+  </si>
+  <si>
+    <t>Script skips archiving and syncing for those files.</t>
+  </si>
+  <si>
+    <t>Run the powershell script manually</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure other proxy pac file besides </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy_sg.pac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has not changed since its last archive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy_vn.pac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the source folder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy_my.pac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the source folder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy_sg.pac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proxy_vn.pac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial Run</t>
+  </si>
+  <si>
+    <t>Initial run of script</t>
+  </si>
+  <si>
+    <t>Script will create the relevant working folders if it does not exist, archieves the first copy of the pac files and copy them to the secondary servers.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,10 +276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,143 +618,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA0C58-EE15-4AD6-AADA-B97C3506DA6D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
